--- a/biology/Zoologie/Dindon_bronzé_d'Amérique/Dindon_bronzé_d'Amérique.xlsx
+++ b/biology/Zoologie/Dindon_bronzé_d'Amérique/Dindon_bronzé_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dindon_bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Dindon_bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dindon bronzé d'Amérique ou mammouth bronzé est une race de dindon originaire d'Amérique et introduite en Europe. Elle a depuis été croisée avec plusieurs races françaises afin d'augmenter leur taille, faisant d'elle la plus lourde des volailles domestiques françaises[1].
+Le dindon bronzé d'Amérique ou mammouth bronzé est une race de dindon originaire d'Amérique et introduite en Europe. Elle a depuis été croisée avec plusieurs races françaises afin d'augmenter leur taille, faisant d'elle la plus lourde des volailles domestiques françaises.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dindon_bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Dindon_bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il s'agit d'une race de grande taille, appréciée pour sa viande et ses œufs. La dinde de race Bronzé d'Amérique est aussi bonne couveuse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il s'agit d'une race de grande taille, appréciée pour sa viande et ses œufs. La dinde de race Bronzé d'Amérique est aussi bonne couveuse.
 « Le Dindon bronzé d'Amérique ne diffère pas beaucoup du Dindon noir de Sologne par l'aspect général. Il est plus fort; l’œil est brun noisette. Le plumage offre un ensemble de teintes vraiment agréable à voir.
 Du cou au milieu du dos, il est d'un beau bronzé cuivré; chaque plume se termine par une bande noire étroite qui la traverse.
 Du milieu du dos aux plumes de couverture de la queue, chaque plume est noire bordée de bronze cuivré.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dindon_bronz%C3%A9_d%27Am%C3%A9rique</t>
+          <t>Dindon_bronzé_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dindon : 13 à 17 kg[2],[3]
-Dinde : 7 à 9 kg[2],[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dindon : 13 à 17 kg,
+Dinde : 7 à 9 kg,</t>
         </is>
       </c>
     </row>
